--- a/medicine/Psychotrope/Thomas_Molson/Thomas_Molson.xlsx
+++ b/medicine/Psychotrope/Thomas_Molson/Thomas_Molson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Molson (Montréal, 1er septembre 1791 - 22 février 1863) est un brasseur, distillateur, propriétaire de meunerie et marchand. Il est le deuxième des trois fils de John Molson.
 Il s'occupe de la brasserie de son père et entre, de 1816 à 1823, en société avec lui et ses deux frères, formant la John Molson &amp; Sons. En 1823, il part pour Kingston où il achètera l'année suivante la brasserie de Henry Murney l'année suivante.
